--- a/src/test/resources/datasheets/VerifyReq_DeleteExistingItemsFromCart.xlsx
+++ b/src/test/resources/datasheets/VerifyReq_DeleteExistingItemsFromCart.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/datasheets/VerifyReq_DeleteExistingItemsFromCart.xlsx
+++ b/src/test/resources/datasheets/VerifyReq_DeleteExistingItemsFromCart.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
